--- a/biology/Zoologie/Cochlespira_elegans/Cochlespira_elegans.xlsx
+++ b/biology/Zoologie/Cochlespira_elegans/Cochlespira_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cochlespira elegans est une espèce de mollusques gastéropodes marins de l'ordre des Neogastropoda et de la famille des Cochlespiridae. Elle est trouvée en Mer des Caraïbes, en Colombie, à Cuba et dans le Nord de l'Océan Atlantique.
-L'espèce existe aussi à l'état fossile, et a été trouvée dans des terrains datant du Pliocène au Costa Rica[2] et du Miocène au Venezuela[3].
+L'espèce existe aussi à l'état fossile, et a été trouvée dans des terrains datant du Pliocène au Costa Rica et du Miocène au Venezuela.
 </t>
         </is>
       </c>
